--- a/data/PHM-EVD-contacts-2017-11-25.xlsx
+++ b/data/PHM-EVD-contacts-2017-11-25.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>from</t>
   </si>
@@ -20,120 +20,117 @@
     <t>to</t>
   </si>
   <si>
+    <t>9aa197</t>
+  </si>
+  <si>
+    <t>39e9dc</t>
+  </si>
+  <si>
+    <t>c2a389</t>
+  </si>
+  <si>
+    <t>51883d</t>
+  </si>
+  <si>
+    <t>933811</t>
+  </si>
+  <si>
+    <t>b4d8aa</t>
+  </si>
+  <si>
+    <t>605322</t>
+  </si>
+  <si>
+    <t>f658bc</t>
+  </si>
+  <si>
+    <t>1b035f</t>
+  </si>
+  <si>
+    <t>778316</t>
+  </si>
+  <si>
+    <t>5eb2b0</t>
+  </si>
+  <si>
+    <t>88526e</t>
+  </si>
+  <si>
+    <t>1efd54</t>
+  </si>
+  <si>
+    <t>a8e9d8</t>
+  </si>
+  <si>
+    <t>426b6d</t>
+  </si>
+  <si>
+    <t>95fc1d</t>
+  </si>
+  <si>
+    <t>e37897</t>
+  </si>
+  <si>
+    <t>99abbe</t>
+  </si>
+  <si>
+    <t>185911</t>
+  </si>
+  <si>
+    <t>e4b0a2</t>
+  </si>
+  <si>
+    <t>1875e2</t>
+  </si>
+  <si>
+    <t>b5ad13</t>
+  </si>
+  <si>
+    <t>55a452</t>
+  </si>
+  <si>
+    <t>ae87f7</t>
+  </si>
+  <si>
+    <t>6f3c15</t>
+  </si>
+  <si>
+    <t>8bed66</t>
+  </si>
+  <si>
+    <t>99141e</t>
+  </si>
+  <si>
+    <t>d5564e</t>
+  </si>
+  <si>
+    <t>501b8f</t>
+  </si>
+  <si>
+    <t>93a3ba</t>
+  </si>
+  <si>
+    <t>3a5305</t>
+  </si>
+  <si>
+    <t>4945f2</t>
+  </si>
+  <si>
+    <t>601d2e</t>
+  </si>
+  <si>
+    <t>e399b1</t>
+  </si>
+  <si>
     <t>af0ac0</t>
   </si>
   <si>
-    <t>c61339</t>
-  </si>
-  <si>
-    <t>c2a389</t>
+    <t>a402f6</t>
   </si>
   <si>
     <t>947e40</t>
   </si>
   <si>
-    <t>933811</t>
-  </si>
-  <si>
-    <t>1b6cc2</t>
-  </si>
-  <si>
-    <t>3d8cf7</t>
-  </si>
-  <si>
-    <t>f658bc</t>
-  </si>
-  <si>
-    <t>1b035f</t>
-  </si>
-  <si>
-    <t>778316</t>
-  </si>
-  <si>
-    <t>5eb2b0</t>
-  </si>
-  <si>
-    <t>88526e</t>
-  </si>
-  <si>
-    <t>1efd54</t>
-  </si>
-  <si>
-    <t>a8e9d8</t>
-  </si>
-  <si>
-    <t>426b6d</t>
-  </si>
-  <si>
-    <t>95fc1d</t>
-  </si>
-  <si>
-    <t>e37897</t>
-  </si>
-  <si>
-    <t>99abbe</t>
-  </si>
-  <si>
-    <t>605322</t>
-  </si>
-  <si>
-    <t>d53618</t>
-  </si>
-  <si>
-    <t>1875e2</t>
-  </si>
-  <si>
-    <t>b5ad13</t>
-  </si>
-  <si>
-    <t>55a452</t>
-  </si>
-  <si>
-    <t>ae87f7</t>
-  </si>
-  <si>
-    <t>6f3c15</t>
-  </si>
-  <si>
-    <t>8bed66</t>
-  </si>
-  <si>
-    <t>99141e</t>
-  </si>
-  <si>
-    <t>d5564e</t>
-  </si>
-  <si>
-    <t>501b8f</t>
-  </si>
-  <si>
-    <t>93a3ba</t>
-  </si>
-  <si>
-    <t>3a5305</t>
-  </si>
-  <si>
-    <t>fea66b</t>
-  </si>
-  <si>
-    <t>4945f2</t>
-  </si>
-  <si>
-    <t>e399b1</t>
-  </si>
-  <si>
-    <t>cca468</t>
-  </si>
-  <si>
-    <t>601d2e</t>
-  </si>
-  <si>
-    <t>a402f6</t>
-  </si>
-  <si>
-    <t>e4b0a2</t>
-  </si>
-  <si>
     <t>8c5776</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>ac8d9d</t>
-  </si>
-  <si>
-    <t>5c5c05</t>
   </si>
 </sst>
 </file>
@@ -375,7 +369,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -383,7 +377,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -391,138 +385,106 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
